--- a/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_7.xlsx
+++ b/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magzumov\Documents\5. Проекты\НИК - Автоматизация отчетности УАО\07-2017-KZT\07 июль\Отчеты для портала\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magzumov\IdeaProjects\unic\nicnbk-data\nicnbk-data-service-impl\src\main\resources\export_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Database">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">РФИ_7!$A$1:$AM$38</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateCount="10000" iterateDelta="1E-10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>Код формы</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>по состоянию на дату</t>
+  </si>
+  <si>
+    <t>&lt;dd.MM.yyyy&gt;</t>
   </si>
 </sst>
 </file>
@@ -412,18 +415,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -530,7 +527,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -669,6 +666,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -733,9 +736,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1059,10 +1059,10 @@
   </sheetPr>
   <dimension ref="A1:AR81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="H83" sqref="H83"/>
-      <selection pane="topRight" activeCell="D28" sqref="D28"/>
+      <selection pane="topRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3169,8 +3169,8 @@
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="73">
-        <v>42948</v>
+      <c r="C2" s="51" t="s">
+        <v>61</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3466,90 +3466,90 @@
       <c r="AM8" s="1"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="69"/>
-      <c r="AC9" s="69"/>
-      <c r="AD9" s="69"/>
-      <c r="AE9" s="69"/>
-      <c r="AF9" s="69"/>
-      <c r="AG9" s="69"/>
-      <c r="AH9" s="69"/>
-      <c r="AI9" s="69"/>
-      <c r="AJ9" s="69"/>
-      <c r="AK9" s="69"/>
-      <c r="AL9" s="69"/>
-      <c r="AM9" s="69"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="71"/>
+      <c r="AG9" s="71"/>
+      <c r="AH9" s="71"/>
+      <c r="AI9" s="71"/>
+      <c r="AJ9" s="71"/>
+      <c r="AK9" s="71"/>
+      <c r="AL9" s="71"/>
+      <c r="AM9" s="71"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="69"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="69"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="69"/>
-      <c r="AL10" s="69"/>
-      <c r="AM10" s="69"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="71"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="71"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="71"/>
+      <c r="AK10" s="71"/>
+      <c r="AL10" s="71"/>
+      <c r="AM10" s="71"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -3634,157 +3634,157 @@
       <c r="AM12" s="1"/>
     </row>
     <row r="13" spans="1:39" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="66" t="s">
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="63" t="s">
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="69"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="64"/>
-      <c r="AG13" s="64"/>
-      <c r="AH13" s="64"/>
-      <c r="AI13" s="64"/>
-      <c r="AJ13" s="65"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="67"/>
       <c r="AK13" s="7"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="8"/>
     </row>
     <row r="14" spans="1:39" s="9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="60" t="s">
+      <c r="A14" s="73"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="60" t="s">
+      <c r="K14" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="60" t="s">
+      <c r="L14" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="60" t="s">
+      <c r="M14" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="60" t="s">
+      <c r="N14" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="60" t="s">
+      <c r="O14" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="60" t="s">
+      <c r="P14" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="60" t="s">
+      <c r="Q14" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="R14" s="60" t="s">
+      <c r="R14" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="S14" s="60" t="s">
+      <c r="S14" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="T14" s="60" t="s">
+      <c r="T14" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="U14" s="60" t="s">
+      <c r="U14" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="V14" s="60" t="s">
+      <c r="V14" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="W14" s="60" t="s">
+      <c r="W14" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="X14" s="60" t="s">
+      <c r="X14" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="Y14" s="63" t="s">
+      <c r="Y14" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="60" t="s">
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="AB14" s="60" t="s">
+      <c r="AB14" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="AC14" s="60" t="s">
+      <c r="AC14" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="AD14" s="60" t="s">
+      <c r="AD14" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="AE14" s="60" t="s">
+      <c r="AE14" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="AF14" s="60" t="s">
+      <c r="AF14" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="AG14" s="60" t="s">
+      <c r="AG14" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="AH14" s="60" t="s">
+      <c r="AH14" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="AI14" s="60" t="s">
+      <c r="AI14" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="AJ14" s="60" t="s">
+      <c r="AJ14" s="62" t="s">
         <v>39</v>
       </c>
       <c r="AK14" s="7"/>
@@ -3792,46 +3792,46 @@
       <c r="AM14" s="10"/>
     </row>
     <row r="15" spans="1:39" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
       <c r="Y15" s="11" t="s">
         <v>40</v>
       </c>
       <c r="Z15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="61"/>
-      <c r="AD15" s="61"/>
-      <c r="AE15" s="61"/>
-      <c r="AF15" s="61"/>
-      <c r="AG15" s="61"/>
-      <c r="AH15" s="61"/>
-      <c r="AI15" s="61"/>
-      <c r="AJ15" s="61"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="63"/>
+      <c r="AF15" s="63"/>
+      <c r="AG15" s="63"/>
+      <c r="AH15" s="63"/>
+      <c r="AI15" s="63"/>
+      <c r="AJ15" s="63"/>
       <c r="AK15" s="7"/>
       <c r="AL15" s="10"/>
       <c r="AM15" s="10"/>
@@ -4315,9 +4315,9 @@
       <c r="C25" s="15">
         <v>9</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
@@ -4450,10 +4450,10 @@
       <c r="AM27" s="25"/>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="58"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="15">
         <v>12</v>
       </c>
@@ -4537,17 +4537,17 @@
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -4580,17 +4580,17 @@
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -4623,17 +4623,17 @@
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -4666,17 +4666,17 @@
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -4709,17 +4709,17 @@
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -4795,17 +4795,17 @@
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -4838,17 +4838,17 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -4881,17 +4881,17 @@
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -4945,93 +4945,93 @@
       <c r="AI40" s="27"/>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
       <c r="P41" s="27"/>
       <c r="AI41" s="27"/>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
       <c r="P42" s="27"/>
       <c r="AI42" s="27"/>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
       <c r="P43" s="27"/>
       <c r="AI43" s="27"/>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
       <c r="P44" s="27"/>
       <c r="AI44" s="27"/>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
       <c r="P45" s="27"/>
       <c r="AI45" s="27"/>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
       <c r="P46" s="27"/>
       <c r="AI46" s="27"/>
     </row>
     <row r="47" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
       <c r="P47" s="27"/>
       <c r="AI47" s="27"/>
     </row>

--- a/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_7.xlsx
+++ b/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_7.xlsx
@@ -527,7 +527,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -608,9 +608,6 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -672,70 +669,76 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1060,16 +1063,16 @@
   <dimension ref="A1:AR81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="AE1" activePane="topRight" state="frozen"/>
       <selection activeCell="H83" sqref="H83"/>
-      <selection pane="topRight" activeCell="F25" sqref="F25"/>
+      <selection pane="topRight" activeCell="A28" sqref="A28:AJ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="48" style="48" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="48" style="47" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="47" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="33.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="3" customWidth="1"/>
@@ -3169,7 +3172,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>61</v>
       </c>
       <c r="D2" s="1"/>
@@ -3466,90 +3469,90 @@
       <c r="AM8" s="1"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="71"/>
-      <c r="AA9" s="71"/>
-      <c r="AB9" s="71"/>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="71"/>
-      <c r="AF9" s="71"/>
-      <c r="AG9" s="71"/>
-      <c r="AH9" s="71"/>
-      <c r="AI9" s="71"/>
-      <c r="AJ9" s="71"/>
-      <c r="AK9" s="71"/>
-      <c r="AL9" s="71"/>
-      <c r="AM9" s="71"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="52"/>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="52"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="71"/>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="71"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="71"/>
-      <c r="AH10" s="71"/>
-      <c r="AI10" s="71"/>
-      <c r="AJ10" s="71"/>
-      <c r="AK10" s="71"/>
-      <c r="AL10" s="71"/>
-      <c r="AM10" s="71"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="52"/>
+      <c r="AH10" s="52"/>
+      <c r="AI10" s="52"/>
+      <c r="AJ10" s="52"/>
+      <c r="AK10" s="52"/>
+      <c r="AL10" s="52"/>
+      <c r="AM10" s="52"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -3634,157 +3637,157 @@
       <c r="AM12" s="1"/>
     </row>
     <row r="13" spans="1:39" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="62" t="s">
+      <c r="G13" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="62" t="s">
+      <c r="H13" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="62" t="s">
+      <c r="I13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="65" t="s">
+      <c r="J13" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="68" t="s">
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="65" t="s">
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="67"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="68"/>
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="62"/>
       <c r="AK13" s="7"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="8"/>
     </row>
     <row r="14" spans="1:39" s="9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="62" t="s">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="62" t="s">
+      <c r="L14" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="62" t="s">
+      <c r="M14" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="62" t="s">
+      <c r="N14" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="62" t="s">
+      <c r="O14" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="62" t="s">
+      <c r="P14" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="62" t="s">
+      <c r="Q14" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="R14" s="62" t="s">
+      <c r="R14" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="S14" s="62" t="s">
+      <c r="S14" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="T14" s="62" t="s">
+      <c r="T14" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="U14" s="62" t="s">
+      <c r="U14" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="V14" s="62" t="s">
+      <c r="V14" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="W14" s="62" t="s">
+      <c r="W14" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="X14" s="62" t="s">
+      <c r="X14" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="Y14" s="65" t="s">
+      <c r="Y14" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="62" t="s">
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="AB14" s="62" t="s">
+      <c r="AB14" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AC14" s="62" t="s">
+      <c r="AC14" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AD14" s="62" t="s">
+      <c r="AD14" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AE14" s="62" t="s">
+      <c r="AE14" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="AF14" s="62" t="s">
+      <c r="AF14" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="AG14" s="62" t="s">
+      <c r="AG14" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AH14" s="62" t="s">
+      <c r="AH14" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="AI14" s="62" t="s">
+      <c r="AI14" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="AJ14" s="62" t="s">
+      <c r="AJ14" s="56" t="s">
         <v>39</v>
       </c>
       <c r="AK14" s="7"/>
@@ -3792,46 +3795,46 @@
       <c r="AM14" s="10"/>
     </row>
     <row r="15" spans="1:39" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
       <c r="Y15" s="11" t="s">
         <v>40</v>
       </c>
       <c r="Z15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AA15" s="63"/>
-      <c r="AB15" s="63"/>
-      <c r="AC15" s="63"/>
-      <c r="AD15" s="63"/>
-      <c r="AE15" s="63"/>
-      <c r="AF15" s="63"/>
-      <c r="AG15" s="63"/>
-      <c r="AH15" s="63"/>
-      <c r="AI15" s="63"/>
-      <c r="AJ15" s="63"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="58"/>
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="58"/>
+      <c r="AH15" s="58"/>
+      <c r="AI15" s="58"/>
+      <c r="AJ15" s="58"/>
       <c r="AK15" s="7"/>
       <c r="AL15" s="10"/>
       <c r="AM15" s="10"/>
@@ -4210,12 +4213,12 @@
       <c r="AC22" s="19"/>
       <c r="AD22" s="19"/>
       <c r="AE22" s="19"/>
-      <c r="AF22" s="32"/>
-      <c r="AG22" s="32"/>
-      <c r="AH22" s="32"/>
-      <c r="AI22" s="32"/>
-      <c r="AJ22" s="32"/>
-      <c r="AK22" s="50"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="31"/>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="49"/>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
@@ -4232,33 +4235,33 @@
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="19"/>
-      <c r="K23" s="22"/>
+      <c r="K23" s="74"/>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
       <c r="O23" s="18"/>
-      <c r="P23" s="49"/>
+      <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
-      <c r="R23" s="49"/>
+      <c r="R23" s="19"/>
       <c r="S23" s="19"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
       <c r="V23" s="19"/>
       <c r="W23" s="19"/>
       <c r="X23" s="19"/>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="49"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="19"/>
-      <c r="AC23" s="49"/>
+      <c r="AC23" s="19"/>
       <c r="AD23" s="19"/>
       <c r="AE23" s="19"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="33"/>
+      <c r="AF23" s="31"/>
+      <c r="AG23" s="31"/>
+      <c r="AH23" s="31"/>
+      <c r="AI23" s="31"/>
+      <c r="AJ23" s="31"/>
+      <c r="AK23" s="32"/>
       <c r="AL23" s="24"/>
       <c r="AM23" s="28"/>
     </row>
@@ -4282,28 +4285,28 @@
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
-      <c r="P24" s="49"/>
+      <c r="P24" s="48"/>
       <c r="Q24" s="19"/>
-      <c r="R24" s="49"/>
+      <c r="R24" s="48"/>
       <c r="S24" s="19"/>
-      <c r="T24" s="49"/>
+      <c r="T24" s="48"/>
       <c r="U24" s="19"/>
       <c r="V24" s="19"/>
       <c r="W24" s="19"/>
       <c r="X24" s="19"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
       <c r="AA24" s="19"/>
       <c r="AB24" s="19"/>
-      <c r="AC24" s="49"/>
+      <c r="AC24" s="48"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="19"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="31"/>
       <c r="AH24" s="30"/>
-      <c r="AI24" s="32"/>
+      <c r="AI24" s="31"/>
       <c r="AJ24" s="30"/>
-      <c r="AK24" s="33"/>
+      <c r="AK24" s="32"/>
       <c r="AL24" s="24"/>
       <c r="AM24" s="28"/>
     </row>
@@ -4317,38 +4320,38 @@
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="52"/>
+      <c r="F25" s="51"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="19"/>
-      <c r="K25" s="22"/>
+      <c r="K25" s="74"/>
       <c r="L25" s="19"/>
       <c r="M25" s="18"/>
       <c r="N25" s="19"/>
       <c r="O25" s="18"/>
-      <c r="P25" s="49"/>
+      <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
-      <c r="R25" s="49"/>
+      <c r="R25" s="19"/>
       <c r="S25" s="19"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
       <c r="V25" s="19"/>
       <c r="W25" s="19"/>
       <c r="X25" s="19"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="49"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
       <c r="AA25" s="19"/>
       <c r="AB25" s="19"/>
-      <c r="AC25" s="49"/>
+      <c r="AC25" s="19"/>
       <c r="AD25" s="19"/>
       <c r="AE25" s="19"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="30"/>
-      <c r="AI25" s="32"/>
-      <c r="AJ25" s="30"/>
-      <c r="AK25" s="33"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="31"/>
+      <c r="AI25" s="31"/>
+      <c r="AJ25" s="31"/>
+      <c r="AK25" s="32"/>
       <c r="AL25" s="26"/>
       <c r="AM25" s="28"/>
       <c r="AN25" s="27"/>
@@ -4356,16 +4359,16 @@
       <c r="AR25" s="29"/>
     </row>
     <row r="26" spans="1:44" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="34">
         <v>10</v>
       </c>
       <c r="D26" s="18"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
@@ -4377,9 +4380,9 @@
       <c r="O26" s="18"/>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
-      <c r="R26" s="49"/>
+      <c r="R26" s="48"/>
       <c r="S26" s="19"/>
-      <c r="T26" s="49"/>
+      <c r="T26" s="48"/>
       <c r="U26" s="19"/>
       <c r="V26" s="19"/>
       <c r="W26" s="19"/>
@@ -4388,33 +4391,33 @@
       <c r="Z26" s="19"/>
       <c r="AA26" s="19"/>
       <c r="AB26" s="19"/>
-      <c r="AC26" s="49"/>
+      <c r="AC26" s="48"/>
       <c r="AD26" s="19"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
-      <c r="AH26" s="49"/>
+      <c r="AH26" s="48"/>
       <c r="AI26" s="19"/>
       <c r="AJ26" s="19"/>
-      <c r="AK26" s="37"/>
+      <c r="AK26" s="36"/>
       <c r="AL26" s="24"/>
       <c r="AM26" s="25"/>
       <c r="AN26" s="27"/>
-      <c r="AO26" s="38"/>
+      <c r="AO26" s="37"/>
       <c r="AP26" s="27"/>
       <c r="AQ26" s="27"/>
     </row>
     <row r="27" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34" t="s">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="34">
         <v>11</v>
       </c>
       <c r="D27" s="18"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
@@ -4426,9 +4429,9 @@
       <c r="O27" s="18"/>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
-      <c r="R27" s="49"/>
+      <c r="R27" s="48"/>
       <c r="S27" s="19"/>
-      <c r="T27" s="49"/>
+      <c r="T27" s="48"/>
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
       <c r="W27" s="19"/>
@@ -4437,23 +4440,23 @@
       <c r="Z27" s="19"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="19"/>
-      <c r="AC27" s="49"/>
+      <c r="AC27" s="48"/>
       <c r="AD27" s="19"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
-      <c r="AH27" s="49"/>
+      <c r="AH27" s="48"/>
       <c r="AI27" s="19"/>
       <c r="AJ27" s="19"/>
-      <c r="AK27" s="37"/>
+      <c r="AK27" s="36"/>
       <c r="AL27" s="24"/>
       <c r="AM27" s="25"/>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="60"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="15">
         <v>12</v>
       </c>
@@ -4463,33 +4466,33 @@
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="31"/>
+      <c r="AF28" s="31"/>
+      <c r="AG28" s="31"/>
+      <c r="AH28" s="31"/>
+      <c r="AI28" s="31"/>
+      <c r="AJ28" s="31"/>
       <c r="AK28" s="24"/>
       <c r="AL28" s="24"/>
       <c r="AM28" s="28"/>
@@ -4512,7 +4515,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="39"/>
+      <c r="R29" s="38"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
@@ -4530,24 +4533,24 @@
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
-      <c r="AJ29" s="40"/>
-      <c r="AK29" s="40"/>
+      <c r="AJ29" s="39"/>
+      <c r="AK29" s="39"/>
       <c r="AL29" s="1"/>
       <c r="AM29" s="1"/>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -4571,7 +4574,7 @@
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
-      <c r="AH30" s="39"/>
+      <c r="AH30" s="38"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
@@ -4580,17 +4583,17 @@
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -4614,7 +4617,7 @@
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
-      <c r="AH31" s="37"/>
+      <c r="AH31" s="36"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
@@ -4623,17 +4626,17 @@
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -4666,17 +4669,17 @@
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -4700,7 +4703,7 @@
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
-      <c r="AH33" s="37"/>
+      <c r="AH33" s="36"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
@@ -4709,17 +4712,17 @@
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -4752,17 +4755,17 @@
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -4795,17 +4798,17 @@
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -4838,17 +4841,17 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -4881,17 +4884,17 @@
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -4923,20 +4926,20 @@
       <c r="AM38" s="1"/>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
       <c r="P39" s="27"/>
       <c r="AI39" s="27"/>
     </row>
@@ -4945,93 +4948,93 @@
       <c r="AI40" s="27"/>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
       <c r="P41" s="27"/>
       <c r="AI41" s="27"/>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
       <c r="P42" s="27"/>
       <c r="AI42" s="27"/>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
       <c r="P43" s="27"/>
       <c r="AI43" s="27"/>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
       <c r="P44" s="27"/>
       <c r="AI44" s="27"/>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
       <c r="P45" s="27"/>
       <c r="AI45" s="27"/>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
       <c r="P46" s="27"/>
       <c r="AI46" s="27"/>
     </row>
     <row r="47" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
       <c r="P47" s="27"/>
       <c r="AI47" s="27"/>
     </row>
@@ -5154,18 +5157,34 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A9:AM9"/>
-    <mergeCell ref="A10:AM10"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="AI14:AI15"/>
-    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AH14:AH15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:R13"/>
+    <mergeCell ref="S13:AA13"/>
+    <mergeCell ref="AB13:AJ13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
     <mergeCell ref="B32:J32"/>
     <mergeCell ref="AC14:AC15"/>
     <mergeCell ref="AD14:AD15"/>
@@ -5182,34 +5201,18 @@
     <mergeCell ref="R14:R15"/>
     <mergeCell ref="S14:S15"/>
     <mergeCell ref="T14:T15"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AH14:AH15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:R13"/>
-    <mergeCell ref="S13:AA13"/>
-    <mergeCell ref="AB13:AJ13"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="A9:AM9"/>
+    <mergeCell ref="A10:AM10"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="AJ14:AJ15"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId1"/>

--- a/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_7.xlsx
+++ b/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_7.xlsx
@@ -15,9 +15,9 @@
     <sheet name="РФИ_7" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Database">#REF!</definedName>
     <definedName name="GR_CODE_ROW">4583</definedName>
     <definedName name="GR_CODE_SHEET">4</definedName>
-    <definedName name="_xlnm.Database">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">РФИ_7!$A$1:$AN$40</definedName>
   </definedNames>
   <calcPr calcId="152511" iterate="1"/>
@@ -121,36 +121,6 @@
   </si>
   <si>
     <t>Резервы на покрытие убытков</t>
-  </si>
-  <si>
-    <t>Итого балансовая стоимость (гр. 11+гр.12+гр.13+гр.14+гр.15+гр.16+гр.17)</t>
-  </si>
-  <si>
-    <t>Количество (гр.10+гр.19)</t>
-  </si>
-  <si>
-    <t>Сумма основного долга/номинальная стоимость (гр.11+гр.20)</t>
-  </si>
-  <si>
-    <t>Дисконт (гр.12+гр.21)</t>
-  </si>
-  <si>
-    <t>Премия (гр.13+гр.22)</t>
-  </si>
-  <si>
-    <t>Вознаграждение (гр.14+гр.23)</t>
-  </si>
-  <si>
-    <t>Вознаграждение предыдущего держателя (гр.15+гр.24)</t>
-  </si>
-  <si>
-    <t>Корректировка справедливой стоимости (гр.16+гр.25+гр.26)</t>
-  </si>
-  <si>
-    <t>Резервы на покрытие убытков (гр.17+гр.27)</t>
-  </si>
-  <si>
-    <t>Итого балансовая стоимость (гр.29+гр.30+гр.31+гр.32+гр.33+гр.34+гр.35)</t>
   </si>
   <si>
     <t>положительная</t>
@@ -330,11 +300,41 @@
   <si>
     <t>Валюта</t>
   </si>
+  <si>
+    <t>Итого балансовая стоимость (гр.12+гр.13+гр.14+гр.15+гр.16+гр.17+гр.18)</t>
+  </si>
+  <si>
+    <t>Количество (гр.11+гр.20)</t>
+  </si>
+  <si>
+    <t>Сумма основного долга/номинальная стоимость (гр.12+гр.21)</t>
+  </si>
+  <si>
+    <t>Дисконт (гр.13+гр.22)</t>
+  </si>
+  <si>
+    <t>Премия (гр.14+гр.23)</t>
+  </si>
+  <si>
+    <t>Вознаграждение (гр.15+гр.24)</t>
+  </si>
+  <si>
+    <t>Вознаграждение предыдущего держателя (гр.16+гр.25)</t>
+  </si>
+  <si>
+    <t>Корректировка справедливой стоимости (гр.17+гр.26+гр.27)</t>
+  </si>
+  <si>
+    <t>Резервы на покрытие убытков (гр.18+гр.28)</t>
+  </si>
+  <si>
+    <t>Итого балансовая стоимость (гр.30+гр.31+гр.32+гр.33+гр.34+гр.35+гр.36)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000000"/>
@@ -689,80 +689,80 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 7" xfId="2"/>
     <cellStyle name="Обычный_ФормОтчет" xfId="3"/>
-    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1079,10 +1079,10 @@
   </sheetPr>
   <dimension ref="A1:AS83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="AE1" activePane="topRight" state="frozen"/>
       <selection activeCell="H83" sqref="H83"/>
-      <selection pane="topRight" activeCell="AK17" sqref="AK17"/>
+      <selection pane="topRight" activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="50" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3494,92 +3494,92 @@
       <c r="AN8" s="1"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="73"/>
-      <c r="AH9" s="73"/>
-      <c r="AI9" s="73"/>
-      <c r="AJ9" s="73"/>
-      <c r="AK9" s="73"/>
-      <c r="AL9" s="73"/>
-      <c r="AM9" s="73"/>
-      <c r="AN9" s="73"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="56"/>
+      <c r="AN9" s="56"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="73"/>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="73"/>
-      <c r="AG10" s="73"/>
-      <c r="AH10" s="73"/>
-      <c r="AI10" s="73"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="73"/>
-      <c r="AL10" s="73"/>
-      <c r="AM10" s="73"/>
-      <c r="AN10" s="73"/>
+      <c r="A10" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="56"/>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -3666,209 +3666,209 @@
       <c r="AN12" s="1"/>
     </row>
     <row r="13" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="64" t="s">
+      <c r="G13" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="64" t="s">
+      <c r="H13" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="64" t="s">
+      <c r="I13" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="67" t="s">
+      <c r="J13" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="70" t="s">
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71"/>
-      <c r="AB13" s="72"/>
-      <c r="AC13" s="67" t="s">
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="74"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="68"/>
-      <c r="AF13" s="68"/>
-      <c r="AG13" s="68"/>
-      <c r="AH13" s="68"/>
-      <c r="AI13" s="68"/>
-      <c r="AJ13" s="68"/>
-      <c r="AK13" s="69"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="72"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="66"/>
       <c r="AL13" s="7"/>
       <c r="AM13" s="8"/>
       <c r="AN13" s="8"/>
     </row>
     <row r="14" spans="1:40" s="9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="75"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="64" t="s">
+      <c r="A14" s="58"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="64" t="s">
+      <c r="L14" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="64" t="s">
+      <c r="M14" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="64" t="s">
+      <c r="N14" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="64" t="s">
+      <c r="O14" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="64" t="s">
+      <c r="P14" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="64" t="s">
+      <c r="Q14" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="R14" s="64" t="s">
+      <c r="R14" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="S14" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="T14" s="64" t="s">
+      <c r="S14" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="T14" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="U14" s="64" t="s">
+      <c r="U14" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="V14" s="64" t="s">
+      <c r="V14" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="W14" s="64" t="s">
+      <c r="W14" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="X14" s="64" t="s">
+      <c r="X14" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="Y14" s="64" t="s">
+      <c r="Y14" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="Z14" s="67" t="s">
+      <c r="Z14" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="64" t="s">
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="AC14" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD14" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE14" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF14" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG14" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH14" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI14" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ14" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK14" s="64" t="s">
-        <v>39</v>
+      <c r="AC14" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD14" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE14" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF14" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG14" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH14" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI14" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ14" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK14" s="60" t="s">
+        <v>63</v>
       </c>
       <c r="AL14" s="7"/>
       <c r="AM14" s="10"/>
       <c r="AN14" s="10"/>
     </row>
     <row r="15" spans="1:40" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
       <c r="Z15" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AA15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="65"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="65"/>
+        <v>31</v>
+      </c>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="62"/>
+      <c r="AJ15" s="62"/>
+      <c r="AK15" s="62"/>
       <c r="AL15" s="7"/>
       <c r="AM15" s="10"/>
       <c r="AN15" s="10"/>
@@ -3991,8 +3991,8 @@
     </row>
     <row r="17" spans="1:45" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="77" t="s">
-        <v>57</v>
+      <c r="B17" s="55" t="s">
+        <v>47</v>
       </c>
       <c r="C17" s="15">
         <v>1</v>
@@ -4038,7 +4038,7 @@
     <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C18" s="15">
         <v>2</v>
@@ -4084,7 +4084,7 @@
     <row r="19" spans="1:45" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="14" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C19" s="15">
         <v>3</v>
@@ -4130,7 +4130,7 @@
     <row r="20" spans="1:45" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="14" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C20" s="15">
         <v>4</v>
@@ -4176,7 +4176,7 @@
     <row r="21" spans="1:45" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="14" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C21" s="15">
         <v>5</v>
@@ -4222,7 +4222,7 @@
     <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="14" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C22" s="15">
         <v>6</v>
@@ -4268,7 +4268,7 @@
     <row r="23" spans="1:45" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C23" s="15">
         <v>7</v>
@@ -4312,7 +4312,7 @@
     <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C24" s="15">
         <v>8</v>
@@ -4358,7 +4358,7 @@
     <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C25" s="15">
         <v>9</v>
@@ -4404,7 +4404,7 @@
     <row r="26" spans="1:45" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="14" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C26" s="15">
         <v>10</v>
@@ -4453,7 +4453,7 @@
     <row r="27" spans="1:45" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="33"/>
       <c r="B27" s="14" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C27" s="34">
         <v>11</v>
@@ -4503,7 +4503,7 @@
     <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" s="33"/>
       <c r="B28" s="14" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C28" s="34">
         <v>12</v>
@@ -4553,7 +4553,7 @@
     <row r="29" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33"/>
       <c r="B29" s="14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C29" s="34">
         <v>13</v>
@@ -4597,10 +4597,10 @@
       <c r="AN29" s="25"/>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="62"/>
+      <c r="A30" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="68"/>
       <c r="C30" s="15">
         <v>14</v>
       </c>
@@ -4686,18 +4686,18 @@
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
+      <c r="B32" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -4730,18 +4730,18 @@
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
+      <c r="B33" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -4774,18 +4774,18 @@
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
+      <c r="B34" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -4818,18 +4818,18 @@
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
+      <c r="B35" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -4862,18 +4862,18 @@
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
+      <c r="B36" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -4907,7 +4907,7 @@
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="40" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C37" s="41"/>
       <c r="D37" s="41"/>
@@ -4950,18 +4950,18 @@
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
+      <c r="B38" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -4994,18 +4994,18 @@
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60"/>
+      <c r="B39" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -5038,18 +5038,18 @@
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
+      <c r="B40" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -5104,100 +5104,100 @@
       <c r="AJ42" s="27"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="76"/>
       <c r="Q43" s="27"/>
       <c r="AJ43" s="27"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
       <c r="Q44" s="27"/>
       <c r="AJ44" s="27"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
       <c r="Q45" s="27"/>
       <c r="AJ45" s="27"/>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
       <c r="Q46" s="27"/>
       <c r="AJ46" s="27"/>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
       <c r="Q47" s="27"/>
       <c r="AJ47" s="27"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
       <c r="Q48" s="27"/>
       <c r="AJ48" s="27"/>
     </row>
     <row r="49" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="76"/>
       <c r="Q49" s="27"/>
       <c r="AJ49" s="27"/>
     </row>
@@ -5320,19 +5320,34 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A9:AN9"/>
-    <mergeCell ref="A10:AN10"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="AJ14:AJ15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="B45:K45"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B47:K47"/>
+    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="AH14:AH15"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="K13:S13"/>
+    <mergeCell ref="T13:AB13"/>
+    <mergeCell ref="AC13:AK13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
     <mergeCell ref="B34:K34"/>
     <mergeCell ref="AD14:AD15"/>
     <mergeCell ref="AE14:AE15"/>
@@ -5349,34 +5364,19 @@
     <mergeCell ref="S14:S15"/>
     <mergeCell ref="T14:T15"/>
     <mergeCell ref="U14:U15"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="AH14:AH15"/>
-    <mergeCell ref="AI14:AI15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="K13:S13"/>
-    <mergeCell ref="T13:AB13"/>
-    <mergeCell ref="AC13:AK13"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="B49:K49"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="B44:K44"/>
-    <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="B47:K47"/>
-    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="A9:AN9"/>
+    <mergeCell ref="A10:AN10"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="J13:J15"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId1"/>
